--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 7 (46, 28, 13, 50, 51)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(46, 28, 13, 50, 51)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0005167433029814596</v>
+        <v>0.06692377132033253</v>
       </c>
       <c r="E2">
-        <v>0.0005167433029814596</v>
+        <v>0.06692377132033253</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9986930482222569</v>
+        <v>0.9999999728083765</v>
       </c>
       <c r="E4">
-        <v>0.9986930482222569</v>
+        <v>0.9999999728083765</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>4.82662363249583E-69</v>
+        <v>5.474639198905171E-102</v>
       </c>
       <c r="E5">
-        <v>4.82662363249583E-69</v>
+        <v>5.474639198905171E-102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999998897019113</v>
+        <v>0.9999997924028738</v>
       </c>
       <c r="E6">
-        <v>0.9999998897019113</v>
+        <v>0.9999997924028738</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999957378963643</v>
+        <v>0.9999999557270978</v>
       </c>
       <c r="E8">
-        <v>4.262103635688241E-06</v>
+        <v>4.427290223318892E-08</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999998666132142</v>
+        <v>0.9999971239217129</v>
       </c>
       <c r="E9">
-        <v>1.333867858388516E-07</v>
+        <v>2.876078287084027E-06</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.278206197914495E-32</v>
+        <v>2.476675975991143E-39</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.287603851175233E-141</v>
+        <v>8.090673646381473E-66</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>52.10333251953125</v>
+        <v>33.89786911010742</v>
       </c>
       <c r="G11">
         <v>0.5</v>
